--- a/me-docs/3.Install-laravel.xlsx
+++ b/me-docs/3.Install-laravel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0961BA-F087-4B82-BDA0-FDCEB9EA1A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856FAE8F-BD12-4D56-BFF5-ED411E7BE6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,23 +27,42 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>install project in proj folder</t>
-  </si>
-  <si>
     <t>VirtualHost</t>
   </si>
   <si>
     <t>Restart Xammp and access url to check laravel installed successfully</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">install project in proj folder using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>laravel 5.8</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -491,28 +510,29 @@
   <dimension ref="A2:A45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>